--- a/ISCardsLight/wwwroot/templates/SafetyCard.xlsx
+++ b/ISCardsLight/wwwroot/templates/SafetyCard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koles\AppData\Local\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koles\source\repos\ISCardsLight\ISCardsLight\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA7206F8-092C-41CF-B25A-48F092CB2BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4737F875-3631-4757-BA83-4C6AC474971B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{93B474C7-1CB3-4CC6-898E-3E7BE8B33CAF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Данные пользователя</t>
   </si>
@@ -124,21 +124,6 @@
   </si>
   <si>
     <t>СП</t>
-  </si>
-  <si>
-    <t>Опасное условие</t>
-  </si>
-  <si>
-    <t>После цементажа обсадной колоны на территории кустовой площадки был образован разлив технической жидкости.</t>
-  </si>
-  <si>
-    <t>Сообщил о данной ситуации мастеру кустовой площадки. Мастер отправил закопать отходы бульдозером.</t>
-  </si>
-  <si>
-    <t>Опасное условие устранено.</t>
-  </si>
-  <si>
-    <t>Не выполнено</t>
   </si>
 </sst>
 </file>
@@ -208,7 +193,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +224,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -331,55 +322,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -397,6 +342,53 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -419,16 +411,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>32657</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1165255</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>657100</xdr:rowOff>
+      <xdr:colOff>1076355</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>212600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -456,7 +448,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="421277" y="0"/>
+          <a:off x="337457" y="254000"/>
           <a:ext cx="1932698" cy="657100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -774,179 +766,179 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:S9"/>
+      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14" style="2" customWidth="1"/>
-    <col min="10" max="10" width="21" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="27.5546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" style="24" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="2"/>
-    <col min="21" max="21" width="15.44140625" style="2" customWidth="1"/>
-    <col min="22" max="23" width="8.88671875" style="2"/>
-    <col min="24" max="24" width="5.88671875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="13.5546875" style="2" customWidth="1"/>
-    <col min="26" max="28" width="9.109375" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="15.44140625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="5.88671875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5546875" style="1" customWidth="1"/>
+    <col min="26" max="28" width="9.109375" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
     </row>
     <row r="4" spans="1:19" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="24">
         <v>79772840126</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
     </row>
     <row r="5" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5" s="3"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
     </row>
     <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -955,194 +947,163 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="S6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="16"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="3">
         <v>6</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="3">
         <v>7</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="3">
         <v>8</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="3">
         <v>9</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="3">
         <v>10</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="3">
         <v>11</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="3">
         <v>12</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="3">
         <v>13</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="3">
         <v>14</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="3">
         <v>15</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="3">
         <v>16</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="3">
         <v>17</v>
       </c>
-      <c r="R8" s="19">
+      <c r="R8" s="3">
         <v>18</v>
       </c>
-      <c r="S8" s="19">
+      <c r="S8" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="21">
-        <v>44830</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="20">
-        <v>79772840126</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:S8" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataConsolidate/>
   <mergeCells count="16">
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="C2:I2"/>
@@ -1154,6 +1115,11 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/ISCardsLight/wwwroot/templates/SafetyCard.xlsx
+++ b/ISCardsLight/wwwroot/templates/SafetyCard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koles\source\repos\ISCardsLight\ISCardsLight\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koles\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4737F875-3631-4757-BA83-4C6AC474971B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C3EA52-509B-4B8E-83E6-7ACD7DA44921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{93B474C7-1CB3-4CC6-898E-3E7BE8B33CAF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1A1684FB-4EB7-4FAC-8C7F-C41C61EA0B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -65,22 +56,22 @@
     <t>Объект</t>
   </si>
   <si>
-    <t>Колешков Евгений Анатольевич</t>
-  </si>
-  <si>
-    <t>Инженер по измерениям 1-й категории</t>
-  </si>
-  <si>
-    <t>e.koleshkov@isnnb.ru</t>
-  </si>
-  <si>
-    <t>ООО Интеллектуальные Системы</t>
-  </si>
-  <si>
-    <t>ПУ/ПП</t>
-  </si>
-  <si>
-    <t>Приразломное 3204</t>
+    <t>Потапов Григорий Юрьевич</t>
+  </si>
+  <si>
+    <t>Инженер-механик 2 категории</t>
+  </si>
+  <si>
+    <t>G.Potapov@isnnb.ru</t>
+  </si>
+  <si>
+    <t>Интеллектуальные Системы</t>
+  </si>
+  <si>
+    <t>УОиРО</t>
+  </si>
+  <si>
+    <t>г.Нижневартовск, Нефтяников 85-84</t>
   </si>
   <si>
     <t>№ п/п</t>
@@ -193,7 +184,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,12 +215,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -322,9 +307,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -348,6 +346,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -361,32 +371,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -411,23 +395,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>337457</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1076355</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>212600</xdr:rowOff>
+      <xdr:colOff>1165255</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>657100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898DF702-5F4B-44F2-984A-2CE95B278F04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C4C745-8A34-4E3D-A398-A9D153C161EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -448,7 +432,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="337457" y="254000"/>
+          <a:off x="421277" y="0"/>
           <a:ext cx="1932698" cy="657100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -757,7 +741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58145366-F684-42A8-B2D9-A3870919F704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00C3081-AEFC-428A-AF8F-D9C65AB9797E}">
   <sheetPr codeName="DataSheet">
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
@@ -766,13 +750,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="12" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
@@ -789,7 +773,7 @@
     <col min="16" max="16" width="13.88671875" style="1" customWidth="1"/>
     <col min="17" max="17" width="16.6640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="27.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" style="13" customWidth="1"/>
     <col min="20" max="20" width="8.88671875" style="1"/>
     <col min="21" max="21" width="15.44140625" style="1" customWidth="1"/>
     <col min="22" max="23" width="8.88671875" style="1"/>
@@ -821,284 +805,285 @@
       <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+      <c r="A2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
     </row>
     <row r="3" spans="1:19" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="22" t="s">
+      <c r="A3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
     </row>
     <row r="4" spans="1:19" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="23" t="s">
+      <c r="A4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24">
-        <v>79772840126</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="E4" s="5">
+        <v>49715</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
     </row>
     <row r="5" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="A5"/>
+      <c r="B5" s="2"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
     </row>
     <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="9" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="10"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="8">
         <v>5</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="8">
         <v>6</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="8">
         <v>7</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="8">
         <v>8</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="8">
         <v>9</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="8">
         <v>10</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="8">
         <v>11</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="8">
         <v>12</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="8">
         <v>13</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="8">
         <v>14</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="8">
         <v>15</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="8">
         <v>16</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="8">
         <v>17</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="8">
         <v>18</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="8">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="9">
+        <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:S8" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
